--- a/2023-04-27.xlsx
+++ b/2023-04-27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1509,7 +1509,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$G5:$G12&lt;=150</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1788,7 +1788,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$G3:$G10&lt;=150</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1801,12 +1801,15 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2020,7 +2023,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G3:$G10&lt;=150</formula>
     </cfRule>
   </conditionalFormatting>
